--- a/static/Models/Regression/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Regression/Equation/Media & Entertainment.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.005039005540311337</v>
+        <v>-0.005041268188506365</v>
       </c>
       <c r="C2">
-        <v>-0.0001212087736348622</v>
+        <v>0.001645122072659433</v>
       </c>
       <c r="D2">
-        <v>-0.04332634061574936</v>
+        <v>-0.04209969937801361</v>
       </c>
       <c r="E2">
-        <v>0.1220166608691216</v>
+        <v>0.1192812770605087</v>
       </c>
       <c r="F2">
-        <v>0.003824513405561447</v>
+        <v>0.001852202462032437</v>
       </c>
       <c r="G2">
-        <v>0.09852436184883118</v>
+        <v>0.09738469123840332</v>
       </c>
       <c r="H2">
-        <v>-0.001577354385517538</v>
+        <v>-0.0008831640006974339</v>
       </c>
       <c r="I2">
-        <v>-0.0270722471177578</v>
+        <v>-0.02668851241469383</v>
       </c>
       <c r="J2">
-        <v>-0.05978710949420929</v>
+        <v>-0.0588926337659359</v>
       </c>
       <c r="K2">
-        <v>0.005850925575941801</v>
+        <v>0.005725389812141657</v>
       </c>
       <c r="L2">
-        <v>0.00779750756919384</v>
+        <v>0.005222522187978029</v>
       </c>
       <c r="M2">
-        <v>0.002798750530928373</v>
+        <v>0.0009553913841955364</v>
       </c>
       <c r="N2">
-        <v>0.001607494195923209</v>
+        <v>0.0008231357205659151</v>
       </c>
       <c r="O2">
-        <v>0.007004016544669867</v>
+        <v>0.008711311966180801</v>
       </c>
       <c r="P2">
-        <v>-0.001299706986173987</v>
+        <v>-0.002428633393719792</v>
       </c>
       <c r="Q2">
-        <v>0.1255682855844498</v>
+        <v>0.1256120502948761</v>
       </c>
       <c r="R2">
-        <v>-0.002703884616494179</v>
+        <v>-0.004620620515197515</v>
       </c>
       <c r="S2">
-        <v>-0.04561957344412804</v>
+        <v>-0.0446980856359005</v>
       </c>
       <c r="T2">
-        <v>0.06940259784460068</v>
+        <v>0.06877025961875916</v>
       </c>
       <c r="U2">
-        <v>0.008217593654990196</v>
+        <v>0.004945522174239159</v>
       </c>
       <c r="V2">
-        <v>-0.01053800620138645</v>
+        <v>-0.01472453307360411</v>
       </c>
       <c r="W2">
-        <v>0.009106457233428955</v>
+        <v>0.00969232153147459</v>
       </c>
       <c r="X2">
-        <v>0.007088884245604277</v>
+        <v>0.004092319868505001</v>
       </c>
       <c r="Y2">
-        <v>0.04082662612199783</v>
+        <v>0.04011285305023193</v>
       </c>
       <c r="Z2">
-        <v>-0.02160434052348137</v>
+        <v>-0.02034934610128403</v>
       </c>
       <c r="AA2">
-        <v>-0.01419809181243181</v>
+        <v>-0.01267898082733154</v>
       </c>
       <c r="AB2">
-        <v>-0.04500136524438858</v>
+        <v>-0.03902105987071991</v>
       </c>
       <c r="AC2">
-        <v>0.02285991795361042</v>
+        <v>0.02487166970968246</v>
       </c>
       <c r="AD2">
-        <v>0.004921324551105499</v>
+        <v>0.005807625129818916</v>
       </c>
       <c r="AE2">
-        <v>0.03606583923101425</v>
+        <v>0.04104895144701004</v>
       </c>
       <c r="AF2">
-        <v>-0.02285072952508926</v>
+        <v>-0.02245295792818069</v>
       </c>
       <c r="AG2">
-        <v>0.04129588231444359</v>
+        <v>0.04415540397167206</v>
       </c>
       <c r="AH2">
-        <v>0.03105631843209267</v>
+        <v>0.03133559972047806</v>
       </c>
       <c r="AI2">
-        <v>0.01798605918884277</v>
+        <v>0.01753676310181618</v>
       </c>
       <c r="AJ2">
-        <v>-0.01586286909878254</v>
+        <v>-0.01684496738016605</v>
       </c>
       <c r="AK2">
-        <v>-0.0001091906742658466</v>
+        <v>0.001878765178844333</v>
       </c>
       <c r="AL2">
-        <v>0.004008331336081028</v>
+        <v>-0.001040125149302185</v>
       </c>
       <c r="AM2">
-        <v>-0.1140593290328979</v>
+        <v>-0.1107830554246902</v>
       </c>
       <c r="AN2">
-        <v>0.03540072962641716</v>
+        <v>0.03685855492949486</v>
       </c>
       <c r="AO2">
-        <v>0.02415236830711365</v>
+        <v>0.02638832479715347</v>
       </c>
       <c r="AP2">
-        <v>0.08500612527132034</v>
+        <v>0.08082246780395508</v>
       </c>
       <c r="AQ2">
-        <v>-0.008317653089761734</v>
+        <v>-0.008063091896474361</v>
       </c>
       <c r="AR2">
-        <v>0.1136914789676666</v>
+        <v>0.1128093898296356</v>
       </c>
       <c r="AS2">
-        <v>0.08906801789999008</v>
+        <v>0.09026113897562027</v>
       </c>
       <c r="AT2">
-        <v>0.01712764427065849</v>
+        <v>0.02078175358474255</v>
       </c>
       <c r="AU2">
-        <v>-0.03487525880336761</v>
+        <v>-0.03477228432893753</v>
       </c>
       <c r="AV2">
-        <v>-0.01024508196860552</v>
+        <v>-0.01354926731437445</v>
       </c>
       <c r="AW2">
-        <v>-0.005986045580357313</v>
+        <v>-0.006948068272322416</v>
       </c>
       <c r="AX2">
-        <v>-0.1618725210428238</v>
+        <v>-0.1615820378065109</v>
       </c>
       <c r="AY2">
-        <v>-0.07170186191797256</v>
+        <v>-0.07011315226554871</v>
       </c>
       <c r="AZ2">
-        <v>-0.03052117675542831</v>
+        <v>-0.03264899179339409</v>
       </c>
       <c r="BA2">
-        <v>-0.06604877859354019</v>
+        <v>-0.06090083345770836</v>
       </c>
       <c r="BB2">
-        <v>-0.1039804741740227</v>
+        <v>-0.1040068492293358</v>
       </c>
       <c r="BC2">
-        <v>0.009815824218094349</v>
+        <v>0.008347819559276104</v>
       </c>
       <c r="BD2">
-        <v>-0.02809656970202923</v>
+        <v>-0.02692230418324471</v>
       </c>
       <c r="BE2">
-        <v>-0.01017996575683355</v>
+        <v>-0.01214050687849522</v>
       </c>
       <c r="BF2">
-        <v>-0.05611135810613632</v>
+        <v>-0.05617805570363998</v>
       </c>
       <c r="BG2">
-        <v>-0.003244579071179032</v>
+        <v>-0.002212358172982931</v>
       </c>
       <c r="BH2">
-        <v>-0.005909530445933342</v>
+        <v>-0.004622414242476225</v>
       </c>
       <c r="BI2">
-        <v>0.07593250274658203</v>
+        <v>0.07566436380147934</v>
       </c>
       <c r="BJ2">
-        <v>-0.002849833806976676</v>
+        <v>-0.001642331248149276</v>
       </c>
       <c r="BK2">
-        <v>0.001107063028030097</v>
+        <v>0.0035169986076653</v>
       </c>
       <c r="BL2">
-        <v>-0.003162882057949901</v>
+        <v>-0.003048553364351392</v>
       </c>
       <c r="BM2">
-        <v>-0.04250519722700119</v>
+        <v>-0.04185165464878082</v>
       </c>
       <c r="BN2">
-        <v>-0.06363800913095474</v>
+        <v>-0.06279995292425156</v>
       </c>
       <c r="BO2">
-        <v>-0.08250409364700317</v>
+        <v>-0.08415324240922928</v>
       </c>
       <c r="BP2">
-        <v>-0.05801672860980034</v>
+        <v>-0.06040789559483528</v>
       </c>
       <c r="BQ2">
-        <v>-0.1144195571541786</v>
+        <v>-0.1151623353362083</v>
       </c>
       <c r="BR2">
-        <v>-0.007144071161746979</v>
+        <v>-0.007500911131501198</v>
       </c>
       <c r="BS2">
-        <v>0.01580809243023396</v>
+        <v>0.01642747595906258</v>
       </c>
       <c r="BT2">
-        <v>-0.003067274577915668</v>
+        <v>-0.002200936898589134</v>
       </c>
       <c r="BU2">
-        <v>-0.08803142607212067</v>
+        <v>-0.08871421962976456</v>
       </c>
       <c r="BV2">
-        <v>-0.06751096993684769</v>
+        <v>-0.06869751960039139</v>
       </c>
       <c r="BW2">
-        <v>-0.001109470962546766</v>
+        <v>0.001549678621813655</v>
       </c>
       <c r="BX2">
-        <v>0.1349535435438156</v>
+        <v>0.1355259567499161</v>
       </c>
       <c r="BY2">
-        <v>-0.003615680616348982</v>
+        <v>0.0001963435206562281</v>
       </c>
       <c r="BZ2">
-        <v>-0.1996486932039261</v>
+        <v>-0.1983097493648529</v>
       </c>
       <c r="CA2">
-        <v>-0.01728297770023346</v>
+        <v>-0.01800020597875118</v>
       </c>
       <c r="CB2">
-        <v>-0.04706520959734917</v>
+        <v>-0.04493647068738937</v>
       </c>
       <c r="CC2">
-        <v>0.01504468452185392</v>
+        <v>0.01560565456748009</v>
       </c>
       <c r="CD2">
-        <v>-0.006524111144244671</v>
+        <v>-0.005215631797909737</v>
       </c>
       <c r="CE2">
-        <v>-0.009215632453560829</v>
+        <v>-0.006653512362390757</v>
       </c>
       <c r="CF2">
-        <v>-0.0541415736079216</v>
+        <v>-0.05391225591301918</v>
       </c>
       <c r="CG2">
-        <v>0.09428686648607254</v>
+        <v>0.09289076924324036</v>
       </c>
       <c r="CH2">
-        <v>-0.007432839833199978</v>
+        <v>-0.008280231617391109</v>
       </c>
       <c r="CI2">
-        <v>0.01567310281097889</v>
+        <v>0.01625200919806957</v>
       </c>
       <c r="CJ2">
-        <v>0.001961910398676991</v>
+        <v>0.002464059740304947</v>
       </c>
       <c r="CK2">
-        <v>-0.06337255984544754</v>
+        <v>-0.0635036826133728</v>
       </c>
       <c r="CL2">
-        <v>0.003293832996860147</v>
+        <v>0.003516807220876217</v>
       </c>
       <c r="CM2">
-        <v>-0.06656929105520248</v>
+        <v>-0.06350340694189072</v>
       </c>
       <c r="CN2">
-        <v>-0.007005868945270777</v>
+        <v>-0.005741005297750235</v>
       </c>
       <c r="CO2">
-        <v>-0.005436763167381287</v>
+        <v>-0.004326099064201117</v>
       </c>
       <c r="CP2">
-        <v>0.05413447320461273</v>
+        <v>0.05414993688464165</v>
       </c>
       <c r="CQ2">
-        <v>-0.06911328434944153</v>
+        <v>-0.06655861437320709</v>
       </c>
       <c r="CR2">
-        <v>0.009455045685172081</v>
+        <v>0.01080693770200014</v>
       </c>
       <c r="CS2">
-        <v>-0.002527280012145638</v>
+        <v>-0.002040164778009057</v>
       </c>
       <c r="CT2">
-        <v>0.002237098291516304</v>
+        <v>0.002450708299875259</v>
       </c>
       <c r="CU2">
-        <v>-0.009145536459982395</v>
+        <v>-0.006372999399900436</v>
       </c>
       <c r="CV2">
-        <v>0.0001936605258379132</v>
+        <v>-0.0005145947216078639</v>
       </c>
       <c r="CW2">
-        <v>-0.03215900063514709</v>
+        <v>-0.03257520869374275</v>
       </c>
       <c r="CX2">
-        <v>-0.006369836628437042</v>
+        <v>-0.008143630810081959</v>
       </c>
       <c r="CY2">
-        <v>0.02595890499651432</v>
+        <v>0.02499790489673615</v>
       </c>
       <c r="CZ2">
-        <v>-0.006841471418738365</v>
+        <v>-0.003638894530013204</v>
       </c>
       <c r="DA2">
-        <v>-0.06261049211025238</v>
+        <v>-0.0651862695813179</v>
       </c>
       <c r="DB2">
-        <v>0.01085240859538317</v>
+        <v>0.01327332761138678</v>
       </c>
       <c r="DC2">
-        <v>-0.009965832345187664</v>
+        <v>-0.008548658341169357</v>
       </c>
       <c r="DD2">
-        <v>0.05680941417813301</v>
+        <v>0.05711694061756134</v>
       </c>
       <c r="DE2">
-        <v>0.0006591622950509191</v>
+        <v>0.0006735787028446794</v>
       </c>
       <c r="DF2">
-        <v>0.0810982808470726</v>
+        <v>0.08138889819383621</v>
       </c>
       <c r="DG2">
-        <v>-0.004041581880301237</v>
+        <v>-0.004780931863933802</v>
       </c>
       <c r="DH2">
-        <v>-0.1000323742628098</v>
+        <v>-0.09783687442541122</v>
       </c>
       <c r="DI2">
-        <v>-0.001841433229856193</v>
+        <v>0.001721911714412272</v>
       </c>
       <c r="DJ2">
-        <v>0.1242338120937347</v>
+        <v>0.1255476325750351</v>
       </c>
       <c r="DK2">
-        <v>-0.07114017754793167</v>
+        <v>-0.07225524634122849</v>
       </c>
       <c r="DL2">
-        <v>-0.04780846834182739</v>
+        <v>-0.0482097864151001</v>
       </c>
       <c r="DM2">
-        <v>-0.01477850321680307</v>
+        <v>-0.00981534831225872</v>
       </c>
       <c r="DN2">
-        <v>0.008432997390627861</v>
+        <v>0.009118938818573952</v>
       </c>
       <c r="DO2">
-        <v>0.00412317831069231</v>
+        <v>0.0051370351575315</v>
       </c>
       <c r="DP2">
-        <v>0.04345480725169182</v>
+        <v>0.04427704587578773</v>
       </c>
       <c r="DQ2">
-        <v>0.009542672894895077</v>
+        <v>0.01068189274519682</v>
       </c>
       <c r="DR2">
-        <v>-0.006249122321605682</v>
+        <v>-0.009037058800458908</v>
       </c>
       <c r="DS2">
-        <v>-0.09666336327791214</v>
+        <v>-0.09506981074810028</v>
       </c>
       <c r="DT2">
-        <v>0.001728624338284135</v>
+        <v>0.0009888769127428532</v>
       </c>
       <c r="DU2">
-        <v>-0.04909900575876236</v>
+        <v>-0.04730892181396484</v>
       </c>
       <c r="DV2">
-        <v>0.003049893071874976</v>
+        <v>0.003742411732673645</v>
       </c>
       <c r="DW2">
-        <v>-0.01565252244472504</v>
+        <v>-0.01427457295358181</v>
       </c>
       <c r="DX2">
-        <v>-0.01732482388615608</v>
+        <v>-0.01657942682504654</v>
       </c>
       <c r="DY2">
-        <v>0.1219290271401405</v>
+        <v>0.122454822063446</v>
       </c>
       <c r="DZ2">
-        <v>-0.01165965106338263</v>
+        <v>-0.008019311353564262</v>
       </c>
       <c r="EA2">
-        <v>-0.04859872162342072</v>
+        <v>-0.04925168305635452</v>
       </c>
       <c r="EB2">
-        <v>-0.006208037957549095</v>
+        <v>-0.005828152410686016</v>
       </c>
       <c r="EC2">
-        <v>-0.0007300378056243062</v>
+        <v>0.001351397135294974</v>
       </c>
       <c r="ED2">
-        <v>0.008076444268226624</v>
+        <v>0.007935189642012119</v>
       </c>
       <c r="EE2">
-        <v>-0.003848043037578464</v>
+        <v>-0.003372681094333529</v>
       </c>
       <c r="EF2">
-        <v>0.04354153573513031</v>
+        <v>0.04348224401473999</v>
       </c>
       <c r="EG2">
-        <v>0.01273511443287134</v>
+        <v>0.01679923385381699</v>
       </c>
       <c r="EH2">
-        <v>-0.02978364005684853</v>
+        <v>-0.03055405057966709</v>
       </c>
       <c r="EI2">
-        <v>0.07671264559030533</v>
+        <v>0.07842312008142471</v>
       </c>
       <c r="EJ2">
-        <v>-0.1872178018093109</v>
+        <v>-0.187421590089798</v>
       </c>
       <c r="EK2">
-        <v>-0.002508634235709906</v>
+        <v>-0.001784738502465189</v>
       </c>
       <c r="EL2">
-        <v>-0.001445182249881327</v>
+        <v>-0.0003559151373337954</v>
       </c>
       <c r="EM2">
-        <v>-0.01936178840696812</v>
+        <v>-0.02292243205010891</v>
       </c>
       <c r="EN2">
-        <v>-0.1299219727516174</v>
+        <v>-0.1277084499597549</v>
       </c>
       <c r="EO2">
-        <v>-0.01188400574028492</v>
+        <v>-0.01332831382751465</v>
       </c>
       <c r="EP2">
-        <v>0.1115120425820351</v>
+        <v>0.112639531493187</v>
       </c>
       <c r="EQ2">
-        <v>0.08321456611156464</v>
+        <v>0.08241520076990128</v>
       </c>
       <c r="ER2">
-        <v>0.003671485697850585</v>
+        <v>0.002622539876028895</v>
       </c>
       <c r="ES2">
-        <v>0.04146501049399376</v>
+        <v>0.04088903591036797</v>
       </c>
       <c r="ET2">
-        <v>-0.01491881255060434</v>
+        <v>-0.01849022321403027</v>
       </c>
       <c r="EU2">
-        <v>0.03048280067741871</v>
+        <v>0.02978268451988697</v>
       </c>
       <c r="EV2">
-        <v>0.03020140714943409</v>
+        <v>0.03082532063126564</v>
       </c>
       <c r="EW2">
-        <v>0.02334598638117313</v>
+        <v>0.02547139301896095</v>
       </c>
       <c r="EX2">
-        <v>0.02610759064555168</v>
+        <v>0.02412584982812405</v>
       </c>
       <c r="EY2">
-        <v>0.01868412643671036</v>
+        <v>0.01915475912392139</v>
       </c>
       <c r="EZ2">
-        <v>-0.03815316781401634</v>
+        <v>-0.03604018688201904</v>
       </c>
       <c r="FA2">
-        <v>-0.01164491660892963</v>
+        <v>-0.01438709627836943</v>
       </c>
       <c r="FB2">
-        <v>0.009202464483678341</v>
+        <v>0.009464804083108902</v>
       </c>
       <c r="FC2">
-        <v>-0.09494598954916</v>
+        <v>-0.09233649075031281</v>
       </c>
       <c r="FD2">
-        <v>-0.01741195656359196</v>
+        <v>-0.01492560561746359</v>
       </c>
       <c r="FE2">
-        <v>0.03829879686236382</v>
+        <v>0.04223822429776192</v>
       </c>
       <c r="FF2">
-        <v>0.04222250729799271</v>
+        <v>0.03793380409479141</v>
       </c>
       <c r="FG2">
-        <v>-0.001683158916421235</v>
+        <v>-0.002175332047045231</v>
       </c>
       <c r="FH2">
-        <v>-0.005571872927248478</v>
+        <v>-0.006404491607099771</v>
       </c>
       <c r="FI2">
-        <v>0.05399072915315628</v>
+        <v>0.05582382157444954</v>
       </c>
       <c r="FJ2">
-        <v>0.009875083342194557</v>
+        <v>0.0106502091512084</v>
       </c>
       <c r="FK2">
-        <v>0.02011168375611305</v>
+        <v>0.02024037763476372</v>
       </c>
       <c r="FL2">
-        <v>0.07083860039710999</v>
+        <v>0.06922168284654617</v>
       </c>
       <c r="FM2">
-        <v>-0.008662541396915913</v>
+        <v>-0.009800277650356293</v>
       </c>
       <c r="FN2">
-        <v>-0.003185156965628266</v>
+        <v>-0.002903209300711751</v>
       </c>
       <c r="FO2">
-        <v>0.001165150781162083</v>
+        <v>0.004392046015709639</v>
       </c>
       <c r="FP2">
-        <v>-0.0002525921736378223</v>
+        <v>0.005008319392800331</v>
       </c>
       <c r="FQ2">
-        <v>-0.004259761422872543</v>
+        <v>-0.002972136717289686</v>
       </c>
       <c r="FR2">
-        <v>-0.002002811757847667</v>
+        <v>-0.001234035124070942</v>
       </c>
       <c r="FS2">
-        <v>-0.003395700827240944</v>
+        <v>-0.003208239329978824</v>
       </c>
       <c r="FT2">
-        <v>0.002329091308638453</v>
+        <v>0.003714331658557057</v>
       </c>
       <c r="FU2">
-        <v>-0.0998573899269104</v>
+        <v>-0.1000733077526093</v>
       </c>
       <c r="FV2">
-        <v>0.123915433883667</v>
+        <v>0.1236632540822029</v>
       </c>
       <c r="FW2">
-        <v>0.03261890634894371</v>
+        <v>0.0319882333278656</v>
       </c>
       <c r="FX2">
-        <v>0.003956356551498175</v>
+        <v>0.001571163884364069</v>
       </c>
       <c r="FY2">
-        <v>-0.001198069308884442</v>
+        <v>0.0009790383046492934</v>
       </c>
       <c r="FZ2">
-        <v>-0.01364423613995314</v>
+        <v>-0.01498323399573565</v>
       </c>
       <c r="GA2">
-        <v>0.02317909151315689</v>
+        <v>0.02469213679432869</v>
       </c>
       <c r="GB2">
-        <v>0.0001201675477204844</v>
+        <v>0.001407684059813619</v>
       </c>
       <c r="GC2">
-        <v>-0.06823677569627762</v>
+        <v>-0.06975216418504715</v>
       </c>
       <c r="GD2">
-        <v>0.1626005917787552</v>
+        <v>0.1629364043474197</v>
       </c>
       <c r="GE2">
-        <v>0.0008204765617847443</v>
+        <v>0.00152627332136035</v>
       </c>
       <c r="GF2">
-        <v>-0.005942357238382101</v>
+        <v>-0.008036159910261631</v>
       </c>
       <c r="GG2">
-        <v>-0.02894403412938118</v>
+        <v>-0.02920380234718323</v>
       </c>
       <c r="GH2">
-        <v>0.01177247427403927</v>
+        <v>0.01556904520839453</v>
       </c>
       <c r="GI2">
-        <v>-0.09995280206203461</v>
+        <v>-0.09609294682741165</v>
       </c>
       <c r="GJ2">
-        <v>0.01465665269643068</v>
+        <v>0.01357953436672688</v>
       </c>
       <c r="GK2">
-        <v>-0.01696338132023811</v>
+        <v>-0.01705723255872726</v>
       </c>
       <c r="GL2">
-        <v>-0.02198896184563637</v>
+        <v>-0.02274089306592941</v>
       </c>
       <c r="GM2">
-        <v>-0.01560061145573854</v>
+        <v>-0.0162226427346468</v>
       </c>
       <c r="GN2">
-        <v>0.09161742031574249</v>
+        <v>0.09036442637443542</v>
       </c>
       <c r="GO2">
-        <v>-0.0186218973249197</v>
+        <v>-0.02234835550189018</v>
       </c>
       <c r="GP2">
-        <v>0.00864750798791647</v>
+        <v>0.00909256748855114</v>
       </c>
       <c r="GQ2">
-        <v>-0.01234376057982445</v>
+        <v>-0.01186627987772226</v>
       </c>
       <c r="GR2">
-        <v>-0.004034887533634901</v>
+        <v>-0.006388175766915083</v>
       </c>
       <c r="GS2">
-        <v>-0.05616674944758415</v>
+        <v>-0.05613624304533005</v>
       </c>
       <c r="GT2">
-        <v>0.009526603855192661</v>
+        <v>0.01119568292051554</v>
       </c>
       <c r="GU2">
-        <v>-0.02242744341492653</v>
+        <v>-0.0235506109893322</v>
       </c>
       <c r="GV2">
-        <v>-0.004950159694999456</v>
+        <v>-0.002198520582169294</v>
       </c>
       <c r="GW2">
-        <v>0.03847504034638405</v>
+        <v>0.04050781205296516</v>
       </c>
       <c r="GX2">
-        <v>0.00535123934969306</v>
+        <v>0.006816996727138758</v>
       </c>
       <c r="GY2">
-        <v>0.001679585198871791</v>
+        <v>0.001968319760635495</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Regression/Equation/Media & Entertainment.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.005041268188506365</v>
+        <v>-0.003466279478743672</v>
       </c>
       <c r="C2">
-        <v>0.001645122072659433</v>
+        <v>0.002616787794977427</v>
       </c>
       <c r="D2">
-        <v>-0.04209969937801361</v>
+        <v>-0.04379912093281746</v>
       </c>
       <c r="E2">
-        <v>0.1192812770605087</v>
+        <v>0.1216730773448944</v>
       </c>
       <c r="F2">
-        <v>0.001852202462032437</v>
+        <v>0.006018125452101231</v>
       </c>
       <c r="G2">
-        <v>0.09738469123840332</v>
+        <v>0.09793773293495178</v>
       </c>
       <c r="H2">
-        <v>-0.0008831640006974339</v>
+        <v>0.0007450921693816781</v>
       </c>
       <c r="I2">
-        <v>-0.02668851241469383</v>
+        <v>-0.02747552096843719</v>
       </c>
       <c r="J2">
-        <v>-0.0588926337659359</v>
+        <v>-0.05802015215158463</v>
       </c>
       <c r="K2">
-        <v>0.005725389812141657</v>
+        <v>0.006043055094778538</v>
       </c>
       <c r="L2">
-        <v>0.005222522187978029</v>
+        <v>0.006221585907042027</v>
       </c>
       <c r="M2">
-        <v>0.0009553913841955364</v>
+        <v>0.001699091284535825</v>
       </c>
       <c r="N2">
-        <v>0.0008231357205659151</v>
+        <v>0.004202515352517366</v>
       </c>
       <c r="O2">
-        <v>0.008711311966180801</v>
+        <v>0.008647230453789234</v>
       </c>
       <c r="P2">
-        <v>-0.002428633393719792</v>
+        <v>-0.002563318703323603</v>
       </c>
       <c r="Q2">
-        <v>0.1256120502948761</v>
+        <v>0.1262330859899521</v>
       </c>
       <c r="R2">
-        <v>-0.004620620515197515</v>
+        <v>-0.004416459240019321</v>
       </c>
       <c r="S2">
-        <v>-0.0446980856359005</v>
+        <v>-0.04728497937321663</v>
       </c>
       <c r="T2">
-        <v>0.06877025961875916</v>
+        <v>0.06777022778987885</v>
       </c>
       <c r="U2">
-        <v>0.004945522174239159</v>
+        <v>0.004177784081548452</v>
       </c>
       <c r="V2">
-        <v>-0.01472453307360411</v>
+        <v>-0.01625377684831619</v>
       </c>
       <c r="W2">
-        <v>0.00969232153147459</v>
+        <v>0.01163685787469149</v>
       </c>
       <c r="X2">
-        <v>0.004092319868505001</v>
+        <v>0.004801863804459572</v>
       </c>
       <c r="Y2">
-        <v>0.04011285305023193</v>
+        <v>0.04221012070775032</v>
       </c>
       <c r="Z2">
-        <v>-0.02034934610128403</v>
+        <v>-0.02133274078369141</v>
       </c>
       <c r="AA2">
-        <v>-0.01267898082733154</v>
+        <v>-0.01181020587682724</v>
       </c>
       <c r="AB2">
-        <v>-0.03902105987071991</v>
+        <v>-0.03846749290823936</v>
       </c>
       <c r="AC2">
-        <v>0.02487166970968246</v>
+        <v>0.02680326625704765</v>
       </c>
       <c r="AD2">
-        <v>0.005807625129818916</v>
+        <v>0.00430111400783062</v>
       </c>
       <c r="AE2">
-        <v>0.04104895144701004</v>
+        <v>0.0424472764134407</v>
       </c>
       <c r="AF2">
-        <v>-0.02245295792818069</v>
+        <v>-0.02304431609809399</v>
       </c>
       <c r="AG2">
-        <v>0.04415540397167206</v>
+        <v>0.04394100606441498</v>
       </c>
       <c r="AH2">
-        <v>0.03133559972047806</v>
+        <v>0.03286076709628105</v>
       </c>
       <c r="AI2">
-        <v>0.01753676310181618</v>
+        <v>0.01703718304634094</v>
       </c>
       <c r="AJ2">
-        <v>-0.01684496738016605</v>
+        <v>-0.01381167117506266</v>
       </c>
       <c r="AK2">
-        <v>0.001878765178844333</v>
+        <v>0.003152489429339767</v>
       </c>
       <c r="AL2">
-        <v>-0.001040125149302185</v>
+        <v>-0.002515084575861692</v>
       </c>
       <c r="AM2">
-        <v>-0.1107830554246902</v>
+        <v>-0.1078672781586647</v>
       </c>
       <c r="AN2">
-        <v>0.03685855492949486</v>
+        <v>0.03516985476016998</v>
       </c>
       <c r="AO2">
-        <v>0.02638832479715347</v>
+        <v>0.02659462206065655</v>
       </c>
       <c r="AP2">
-        <v>0.08082246780395508</v>
+        <v>0.08100390434265137</v>
       </c>
       <c r="AQ2">
-        <v>-0.008063091896474361</v>
+        <v>-0.007045346312224865</v>
       </c>
       <c r="AR2">
-        <v>0.1128093898296356</v>
+        <v>0.1132173910737038</v>
       </c>
       <c r="AS2">
-        <v>0.09026113897562027</v>
+        <v>0.08874040842056274</v>
       </c>
       <c r="AT2">
-        <v>0.02078175358474255</v>
+        <v>0.02214724943041801</v>
       </c>
       <c r="AU2">
-        <v>-0.03477228432893753</v>
+        <v>-0.0346144400537014</v>
       </c>
       <c r="AV2">
-        <v>-0.01354926731437445</v>
+        <v>-0.01162905897945166</v>
       </c>
       <c r="AW2">
-        <v>-0.006948068272322416</v>
+        <v>-0.006433490198105574</v>
       </c>
       <c r="AX2">
-        <v>-0.1615820378065109</v>
+        <v>-0.1608462184667587</v>
       </c>
       <c r="AY2">
-        <v>-0.07011315226554871</v>
+        <v>-0.06934476643800735</v>
       </c>
       <c r="AZ2">
-        <v>-0.03264899179339409</v>
+        <v>-0.0315970778465271</v>
       </c>
       <c r="BA2">
-        <v>-0.06090083345770836</v>
+        <v>-0.06198136880993843</v>
       </c>
       <c r="BB2">
-        <v>-0.1040068492293358</v>
+        <v>-0.1023506075143814</v>
       </c>
       <c r="BC2">
-        <v>0.008347819559276104</v>
+        <v>0.006421749945729971</v>
       </c>
       <c r="BD2">
-        <v>-0.02692230418324471</v>
+        <v>-0.02867663092911243</v>
       </c>
       <c r="BE2">
-        <v>-0.01214050687849522</v>
+        <v>-0.0120390010997653</v>
       </c>
       <c r="BF2">
-        <v>-0.05617805570363998</v>
+        <v>-0.05391856655478477</v>
       </c>
       <c r="BG2">
-        <v>-0.002212358172982931</v>
+        <v>-0.003553233109414577</v>
       </c>
       <c r="BH2">
-        <v>-0.004622414242476225</v>
+        <v>-0.001822410500608385</v>
       </c>
       <c r="BI2">
-        <v>0.07566436380147934</v>
+        <v>0.07466704398393631</v>
       </c>
       <c r="BJ2">
-        <v>-0.001642331248149276</v>
+        <v>-1.468193840992171E-05</v>
       </c>
       <c r="BK2">
-        <v>0.0035169986076653</v>
+        <v>0.003783488180488348</v>
       </c>
       <c r="BL2">
-        <v>-0.003048553364351392</v>
+        <v>-0.001664983108639717</v>
       </c>
       <c r="BM2">
-        <v>-0.04185165464878082</v>
+        <v>-0.04441024735569954</v>
       </c>
       <c r="BN2">
-        <v>-0.06279995292425156</v>
+        <v>-0.06123325601220131</v>
       </c>
       <c r="BO2">
-        <v>-0.08415324240922928</v>
+        <v>-0.08298306912183762</v>
       </c>
       <c r="BP2">
-        <v>-0.06040789559483528</v>
+        <v>-0.05775897949934006</v>
       </c>
       <c r="BQ2">
-        <v>-0.1151623353362083</v>
+        <v>-0.1149976626038551</v>
       </c>
       <c r="BR2">
-        <v>-0.007500911131501198</v>
+        <v>-0.006829977966845036</v>
       </c>
       <c r="BS2">
-        <v>0.01642747595906258</v>
+        <v>0.01509643252938986</v>
       </c>
       <c r="BT2">
-        <v>-0.002200936898589134</v>
+        <v>-0.001944112591445446</v>
       </c>
       <c r="BU2">
-        <v>-0.08871421962976456</v>
+        <v>-0.09056022763252258</v>
       </c>
       <c r="BV2">
-        <v>-0.06869751960039139</v>
+        <v>-0.0681355744600296</v>
       </c>
       <c r="BW2">
-        <v>0.001549678621813655</v>
+        <v>-9.365944424644113E-05</v>
       </c>
       <c r="BX2">
-        <v>0.1355259567499161</v>
+        <v>0.1364828497171402</v>
       </c>
       <c r="BY2">
-        <v>0.0001963435206562281</v>
+        <v>-0.00398964574560523</v>
       </c>
       <c r="BZ2">
-        <v>-0.1983097493648529</v>
+        <v>-0.1967187374830246</v>
       </c>
       <c r="CA2">
-        <v>-0.01800020597875118</v>
+        <v>-0.01775612123310566</v>
       </c>
       <c r="CB2">
-        <v>-0.04493647068738937</v>
+        <v>-0.04611286148428917</v>
       </c>
       <c r="CC2">
-        <v>0.01560565456748009</v>
+        <v>0.01449685636907816</v>
       </c>
       <c r="CD2">
-        <v>-0.005215631797909737</v>
+        <v>-0.003598437178879976</v>
       </c>
       <c r="CE2">
-        <v>-0.006653512362390757</v>
+        <v>-0.00606260821223259</v>
       </c>
       <c r="CF2">
-        <v>-0.05391225591301918</v>
+        <v>-0.05211500078439713</v>
       </c>
       <c r="CG2">
-        <v>0.09289076924324036</v>
+        <v>0.09239479899406433</v>
       </c>
       <c r="CH2">
-        <v>-0.008280231617391109</v>
+        <v>-0.01059018447995186</v>
       </c>
       <c r="CI2">
-        <v>0.01625200919806957</v>
+        <v>0.01449561584740877</v>
       </c>
       <c r="CJ2">
-        <v>0.002464059740304947</v>
+        <v>0.003766973735764623</v>
       </c>
       <c r="CK2">
-        <v>-0.0635036826133728</v>
+        <v>-0.06524855643510818</v>
       </c>
       <c r="CL2">
-        <v>0.003516807220876217</v>
+        <v>0.002169264713302255</v>
       </c>
       <c r="CM2">
-        <v>-0.06350340694189072</v>
+        <v>-0.06353055685758591</v>
       </c>
       <c r="CN2">
-        <v>-0.005741005297750235</v>
+        <v>-0.007020381279289722</v>
       </c>
       <c r="CO2">
-        <v>-0.004326099064201117</v>
+        <v>-0.005444871261715889</v>
       </c>
       <c r="CP2">
-        <v>0.05414993688464165</v>
+        <v>0.05394677445292473</v>
       </c>
       <c r="CQ2">
-        <v>-0.06655861437320709</v>
+        <v>-0.06814981997013092</v>
       </c>
       <c r="CR2">
-        <v>0.01080693770200014</v>
+        <v>0.009592846967279911</v>
       </c>
       <c r="CS2">
-        <v>-0.002040164778009057</v>
+        <v>-0.003451731754466891</v>
       </c>
       <c r="CT2">
-        <v>0.002450708299875259</v>
+        <v>0.001187782385386527</v>
       </c>
       <c r="CU2">
-        <v>-0.006372999399900436</v>
+        <v>-0.00799167063087225</v>
       </c>
       <c r="CV2">
-        <v>-0.0005145947216078639</v>
+        <v>-0.002194349421188235</v>
       </c>
       <c r="CW2">
-        <v>-0.03257520869374275</v>
+        <v>-0.03287005797028542</v>
       </c>
       <c r="CX2">
-        <v>-0.008143630810081959</v>
+        <v>-0.005656031891703606</v>
       </c>
       <c r="CY2">
-        <v>0.02499790489673615</v>
+        <v>0.02559083513915539</v>
       </c>
       <c r="CZ2">
-        <v>-0.003638894530013204</v>
+        <v>-0.001780765131115913</v>
       </c>
       <c r="DA2">
-        <v>-0.0651862695813179</v>
+        <v>-0.06560900062322617</v>
       </c>
       <c r="DB2">
-        <v>0.01327332761138678</v>
+        <v>0.0150940353050828</v>
       </c>
       <c r="DC2">
-        <v>-0.008548658341169357</v>
+        <v>-0.01053494215011597</v>
       </c>
       <c r="DD2">
-        <v>0.05711694061756134</v>
+        <v>0.05875343829393387</v>
       </c>
       <c r="DE2">
-        <v>0.0006735787028446794</v>
+        <v>-0.001085083815269172</v>
       </c>
       <c r="DF2">
-        <v>0.08138889819383621</v>
+        <v>0.08268532156944275</v>
       </c>
       <c r="DG2">
-        <v>-0.004780931863933802</v>
+        <v>-0.006673803552985191</v>
       </c>
       <c r="DH2">
-        <v>-0.09783687442541122</v>
+        <v>-0.09681141376495361</v>
       </c>
       <c r="DI2">
-        <v>0.001721911714412272</v>
+        <v>0.002892266493290663</v>
       </c>
       <c r="DJ2">
-        <v>0.1255476325750351</v>
+        <v>0.1241907551884651</v>
       </c>
       <c r="DK2">
-        <v>-0.07225524634122849</v>
+        <v>-0.07102049887180328</v>
       </c>
       <c r="DL2">
-        <v>-0.0482097864151001</v>
+        <v>-0.04926137253642082</v>
       </c>
       <c r="DM2">
-        <v>-0.00981534831225872</v>
+        <v>-0.009099604561924934</v>
       </c>
       <c r="DN2">
-        <v>0.009118938818573952</v>
+        <v>0.00773836113512516</v>
       </c>
       <c r="DO2">
-        <v>0.0051370351575315</v>
+        <v>0.008259067311882973</v>
       </c>
       <c r="DP2">
-        <v>0.04427704587578773</v>
+        <v>0.04543806239962578</v>
       </c>
       <c r="DQ2">
-        <v>0.01068189274519682</v>
+        <v>0.009432824328541756</v>
       </c>
       <c r="DR2">
-        <v>-0.009037058800458908</v>
+        <v>-0.006665977649390697</v>
       </c>
       <c r="DS2">
-        <v>-0.09506981074810028</v>
+        <v>-0.09316225349903107</v>
       </c>
       <c r="DT2">
-        <v>0.0009888769127428532</v>
+        <v>0.00126223242841661</v>
       </c>
       <c r="DU2">
-        <v>-0.04730892181396484</v>
+        <v>-0.0483013242483139</v>
       </c>
       <c r="DV2">
-        <v>0.003742411732673645</v>
+        <v>0.00354852038435638</v>
       </c>
       <c r="DW2">
-        <v>-0.01427457295358181</v>
+        <v>-0.01382023189216852</v>
       </c>
       <c r="DX2">
-        <v>-0.01657942682504654</v>
+        <v>-0.01798105053603649</v>
       </c>
       <c r="DY2">
-        <v>0.122454822063446</v>
+        <v>0.1237911656498909</v>
       </c>
       <c r="DZ2">
-        <v>-0.008019311353564262</v>
+        <v>-0.00621635839343071</v>
       </c>
       <c r="EA2">
-        <v>-0.04925168305635452</v>
+        <v>-0.04751147329807281</v>
       </c>
       <c r="EB2">
-        <v>-0.005828152410686016</v>
+        <v>-0.007733374368399382</v>
       </c>
       <c r="EC2">
-        <v>0.001351397135294974</v>
+        <v>0.002527717500925064</v>
       </c>
       <c r="ED2">
-        <v>0.007935189642012119</v>
+        <v>0.006893186829984188</v>
       </c>
       <c r="EE2">
-        <v>-0.003372681094333529</v>
+        <v>-0.004998128861188889</v>
       </c>
       <c r="EF2">
-        <v>0.04348224401473999</v>
+        <v>0.04548394680023193</v>
       </c>
       <c r="EG2">
-        <v>0.01679923385381699</v>
+        <v>0.02021627128124237</v>
       </c>
       <c r="EH2">
-        <v>-0.03055405057966709</v>
+        <v>-0.02952133491635323</v>
       </c>
       <c r="EI2">
-        <v>0.07842312008142471</v>
+        <v>0.08065176755189896</v>
       </c>
       <c r="EJ2">
-        <v>-0.187421590089798</v>
+        <v>-0.1877322047948837</v>
       </c>
       <c r="EK2">
-        <v>-0.001784738502465189</v>
+        <v>-0.002825142815709114</v>
       </c>
       <c r="EL2">
-        <v>-0.0003559151373337954</v>
+        <v>-0.001676894025877118</v>
       </c>
       <c r="EM2">
-        <v>-0.02292243205010891</v>
+        <v>-0.02004867792129517</v>
       </c>
       <c r="EN2">
-        <v>-0.1277084499597549</v>
+        <v>-0.1264431774616241</v>
       </c>
       <c r="EO2">
-        <v>-0.01332831382751465</v>
+        <v>-0.01406015455722809</v>
       </c>
       <c r="EP2">
-        <v>0.112639531493187</v>
+        <v>0.1117710545659065</v>
       </c>
       <c r="EQ2">
-        <v>0.08241520076990128</v>
+        <v>0.08570075035095215</v>
       </c>
       <c r="ER2">
-        <v>0.002622539876028895</v>
+        <v>0.006128940265625715</v>
       </c>
       <c r="ES2">
-        <v>0.04088903591036797</v>
+        <v>0.04340235516428947</v>
       </c>
       <c r="ET2">
-        <v>-0.01849022321403027</v>
+        <v>-0.01783425733447075</v>
       </c>
       <c r="EU2">
-        <v>0.02978268451988697</v>
+        <v>0.03212916851043701</v>
       </c>
       <c r="EV2">
-        <v>0.03082532063126564</v>
+        <v>0.03198942169547081</v>
       </c>
       <c r="EW2">
-        <v>0.02547139301896095</v>
+        <v>0.02449265494942665</v>
       </c>
       <c r="EX2">
-        <v>0.02412584982812405</v>
+        <v>0.02564252912998199</v>
       </c>
       <c r="EY2">
-        <v>0.01915475912392139</v>
+        <v>0.01788383722305298</v>
       </c>
       <c r="EZ2">
-        <v>-0.03604018688201904</v>
+        <v>-0.03567885607481003</v>
       </c>
       <c r="FA2">
-        <v>-0.01438709627836943</v>
+        <v>-0.01409573666751385</v>
       </c>
       <c r="FB2">
-        <v>0.009464804083108902</v>
+        <v>0.007891206070780754</v>
       </c>
       <c r="FC2">
-        <v>-0.09233649075031281</v>
+        <v>-0.09209928661584854</v>
       </c>
       <c r="FD2">
-        <v>-0.01492560561746359</v>
+        <v>-0.01377911493182182</v>
       </c>
       <c r="FE2">
-        <v>0.04223822429776192</v>
+        <v>0.04445946961641312</v>
       </c>
       <c r="FF2">
-        <v>0.03793380409479141</v>
+        <v>0.03896027058362961</v>
       </c>
       <c r="FG2">
-        <v>-0.002175332047045231</v>
+        <v>-0.003346094861626625</v>
       </c>
       <c r="FH2">
-        <v>-0.006404491607099771</v>
+        <v>-0.001450541196390986</v>
       </c>
       <c r="FI2">
-        <v>0.05582382157444954</v>
+        <v>0.05802092328667641</v>
       </c>
       <c r="FJ2">
-        <v>0.0106502091512084</v>
+        <v>0.01257922314107418</v>
       </c>
       <c r="FK2">
-        <v>0.02024037763476372</v>
+        <v>0.02069021016359329</v>
       </c>
       <c r="FL2">
-        <v>0.06922168284654617</v>
+        <v>0.07206434011459351</v>
       </c>
       <c r="FM2">
-        <v>-0.009800277650356293</v>
+        <v>-0.007588185369968414</v>
       </c>
       <c r="FN2">
-        <v>-0.002903209300711751</v>
+        <v>-0.001737785409204662</v>
       </c>
       <c r="FO2">
-        <v>0.004392046015709639</v>
+        <v>0.006209271494299173</v>
       </c>
       <c r="FP2">
-        <v>0.005008319392800331</v>
+        <v>0.002737785689532757</v>
       </c>
       <c r="FQ2">
-        <v>-0.002972136717289686</v>
+        <v>-0.004382003098726273</v>
       </c>
       <c r="FR2">
-        <v>-0.001234035124070942</v>
+        <v>-0.002781633054837584</v>
       </c>
       <c r="FS2">
-        <v>-0.003208239329978824</v>
+        <v>-0.004631292540580034</v>
       </c>
       <c r="FT2">
-        <v>0.003714331658557057</v>
+        <v>0.002432964043691754</v>
       </c>
       <c r="FU2">
-        <v>-0.1000733077526093</v>
+        <v>-0.1012138351798058</v>
       </c>
       <c r="FV2">
-        <v>0.1236632540822029</v>
+        <v>0.1218085438013077</v>
       </c>
       <c r="FW2">
-        <v>0.0319882333278656</v>
+        <v>0.03094475343823433</v>
       </c>
       <c r="FX2">
-        <v>0.001571163884364069</v>
+        <v>0.001905889599584043</v>
       </c>
       <c r="FY2">
-        <v>0.0009790383046492934</v>
+        <v>0.001365108066238463</v>
       </c>
       <c r="FZ2">
-        <v>-0.01498323399573565</v>
+        <v>-0.01404839288443327</v>
       </c>
       <c r="GA2">
-        <v>0.02469213679432869</v>
+        <v>0.02406527101993561</v>
       </c>
       <c r="GB2">
-        <v>0.001407684059813619</v>
+        <v>-0.001983425347134471</v>
       </c>
       <c r="GC2">
-        <v>-0.06975216418504715</v>
+        <v>-0.06936318427324295</v>
       </c>
       <c r="GD2">
-        <v>0.1629364043474197</v>
+        <v>0.1616566926240921</v>
       </c>
       <c r="GE2">
-        <v>0.00152627332136035</v>
+        <v>0.0001387405063724145</v>
       </c>
       <c r="GF2">
-        <v>-0.008036159910261631</v>
+        <v>-0.005631843581795692</v>
       </c>
       <c r="GG2">
-        <v>-0.02920380234718323</v>
+        <v>-0.02955187484622002</v>
       </c>
       <c r="GH2">
-        <v>0.01556904520839453</v>
+        <v>0.01606583595275879</v>
       </c>
       <c r="GI2">
-        <v>-0.09609294682741165</v>
+        <v>-0.09578640758991241</v>
       </c>
       <c r="GJ2">
-        <v>0.01357953436672688</v>
+        <v>0.01414935290813446</v>
       </c>
       <c r="GK2">
-        <v>-0.01705723255872726</v>
+        <v>-0.01746309921145439</v>
       </c>
       <c r="GL2">
-        <v>-0.02274089306592941</v>
+        <v>-0.02196353673934937</v>
       </c>
       <c r="GM2">
-        <v>-0.0162226427346468</v>
+        <v>-0.0167692843824625</v>
       </c>
       <c r="GN2">
-        <v>0.09036442637443542</v>
+        <v>0.09186886996030807</v>
       </c>
       <c r="GO2">
-        <v>-0.02234835550189018</v>
+        <v>-0.02272552065551281</v>
       </c>
       <c r="GP2">
-        <v>0.00909256748855114</v>
+        <v>0.00754235778003931</v>
       </c>
       <c r="GQ2">
-        <v>-0.01186627987772226</v>
+        <v>-0.01533994637429714</v>
       </c>
       <c r="GR2">
-        <v>-0.006388175766915083</v>
+        <v>-0.00631481921300292</v>
       </c>
       <c r="GS2">
-        <v>-0.05613624304533005</v>
+        <v>-0.05541365593671799</v>
       </c>
       <c r="GT2">
-        <v>0.01119568292051554</v>
+        <v>0.011661721393466</v>
       </c>
       <c r="GU2">
-        <v>-0.0235506109893322</v>
+        <v>-0.02331593818962574</v>
       </c>
       <c r="GV2">
-        <v>-0.002198520582169294</v>
+        <v>-0.001629216014407575</v>
       </c>
       <c r="GW2">
-        <v>0.04050781205296516</v>
+        <v>0.04094259440898895</v>
       </c>
       <c r="GX2">
-        <v>0.006816996727138758</v>
+        <v>0.005368842277675867</v>
       </c>
       <c r="GY2">
-        <v>0.001968319760635495</v>
+        <v>3.979960092692636E-05</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Regression/Equation/Media & Entertainment.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.003466279478743672</v>
+        <v>-0.00561883021146059</v>
       </c>
       <c r="C2">
-        <v>0.002616787794977427</v>
+        <v>0.001240827608853579</v>
       </c>
       <c r="D2">
-        <v>-0.04379912093281746</v>
+        <v>-0.04308541119098663</v>
       </c>
       <c r="E2">
-        <v>0.1216730773448944</v>
+        <v>0.1204389110207558</v>
       </c>
       <c r="F2">
-        <v>0.006018125452101231</v>
+        <v>0.01189286075532436</v>
       </c>
       <c r="G2">
-        <v>0.09793773293495178</v>
+        <v>0.09996290504932404</v>
       </c>
       <c r="H2">
-        <v>0.0007450921693816781</v>
+        <v>0.007910298183560371</v>
       </c>
       <c r="I2">
-        <v>-0.02747552096843719</v>
+        <v>-0.02557683922350407</v>
       </c>
       <c r="J2">
-        <v>-0.05802015215158463</v>
+        <v>-0.0615294873714447</v>
       </c>
       <c r="K2">
-        <v>0.006043055094778538</v>
+        <v>0.006458992604166269</v>
       </c>
       <c r="L2">
-        <v>0.006221585907042027</v>
+        <v>0.005386228207498789</v>
       </c>
       <c r="M2">
-        <v>0.001699091284535825</v>
+        <v>0.002504436764866114</v>
       </c>
       <c r="N2">
-        <v>0.004202515352517366</v>
+        <v>0.0004591488686855882</v>
       </c>
       <c r="O2">
-        <v>0.008647230453789234</v>
+        <v>0.008063786663115025</v>
       </c>
       <c r="P2">
-        <v>-0.002563318703323603</v>
+        <v>-0.002398907439783216</v>
       </c>
       <c r="Q2">
-        <v>0.1262330859899521</v>
+        <v>0.1247866228222847</v>
       </c>
       <c r="R2">
-        <v>-0.004416459240019321</v>
+        <v>-0.003674052655696869</v>
       </c>
       <c r="S2">
-        <v>-0.04728497937321663</v>
+        <v>-0.04951073229312897</v>
       </c>
       <c r="T2">
-        <v>0.06777022778987885</v>
+        <v>0.06987553089857101</v>
       </c>
       <c r="U2">
-        <v>0.004177784081548452</v>
+        <v>0.0007081942167133093</v>
       </c>
       <c r="V2">
-        <v>-0.01625377684831619</v>
+        <v>-0.01231428422033787</v>
       </c>
       <c r="W2">
-        <v>0.01163685787469149</v>
+        <v>0.01247912552207708</v>
       </c>
       <c r="X2">
-        <v>0.004801863804459572</v>
+        <v>0.006400980520993471</v>
       </c>
       <c r="Y2">
-        <v>0.04221012070775032</v>
+        <v>0.04014119133353233</v>
       </c>
       <c r="Z2">
-        <v>-0.02133274078369141</v>
+        <v>-0.01403869409114122</v>
       </c>
       <c r="AA2">
-        <v>-0.01181020587682724</v>
+        <v>-0.01136361248791218</v>
       </c>
       <c r="AB2">
-        <v>-0.03846749290823936</v>
+        <v>-0.0426848828792572</v>
       </c>
       <c r="AC2">
-        <v>0.02680326625704765</v>
+        <v>0.03074430674314499</v>
       </c>
       <c r="AD2">
-        <v>0.00430111400783062</v>
+        <v>0.006521290633827448</v>
       </c>
       <c r="AE2">
-        <v>0.0424472764134407</v>
+        <v>0.04076800867915154</v>
       </c>
       <c r="AF2">
-        <v>-0.02304431609809399</v>
+        <v>-0.0187940951436758</v>
       </c>
       <c r="AG2">
-        <v>0.04394100606441498</v>
+        <v>0.04228714853525162</v>
       </c>
       <c r="AH2">
-        <v>0.03286076709628105</v>
+        <v>0.0292218029499054</v>
       </c>
       <c r="AI2">
-        <v>0.01703718304634094</v>
+        <v>0.01208531484007835</v>
       </c>
       <c r="AJ2">
-        <v>-0.01381167117506266</v>
+        <v>-0.01395176723599434</v>
       </c>
       <c r="AK2">
-        <v>0.003152489429339767</v>
+        <v>0.005256339441984892</v>
       </c>
       <c r="AL2">
-        <v>-0.002515084575861692</v>
+        <v>0.004625609144568443</v>
       </c>
       <c r="AM2">
-        <v>-0.1078672781586647</v>
+        <v>-0.1070625633001328</v>
       </c>
       <c r="AN2">
-        <v>0.03516985476016998</v>
+        <v>0.03689048439264297</v>
       </c>
       <c r="AO2">
-        <v>0.02659462206065655</v>
+        <v>0.01715756766498089</v>
       </c>
       <c r="AP2">
-        <v>0.08100390434265137</v>
+        <v>0.07759328186511993</v>
       </c>
       <c r="AQ2">
-        <v>-0.007045346312224865</v>
+        <v>-0.007437011692672968</v>
       </c>
       <c r="AR2">
-        <v>0.1132173910737038</v>
+        <v>0.114158034324646</v>
       </c>
       <c r="AS2">
-        <v>0.08874040842056274</v>
+        <v>0.08891358226537704</v>
       </c>
       <c r="AT2">
-        <v>0.02214724943041801</v>
+        <v>0.02107010409235954</v>
       </c>
       <c r="AU2">
-        <v>-0.0346144400537014</v>
+        <v>-0.03507454320788383</v>
       </c>
       <c r="AV2">
-        <v>-0.01162905897945166</v>
+        <v>-0.01791500486433506</v>
       </c>
       <c r="AW2">
-        <v>-0.006433490198105574</v>
+        <v>-0.006370819639414549</v>
       </c>
       <c r="AX2">
-        <v>-0.1608462184667587</v>
+        <v>-0.1565231829881668</v>
       </c>
       <c r="AY2">
-        <v>-0.06934476643800735</v>
+        <v>-0.06931687146425247</v>
       </c>
       <c r="AZ2">
-        <v>-0.0315970778465271</v>
+        <v>-0.03400266170501709</v>
       </c>
       <c r="BA2">
-        <v>-0.06198136880993843</v>
+        <v>-0.06134601682424545</v>
       </c>
       <c r="BB2">
-        <v>-0.1023506075143814</v>
+        <v>-0.1060017347335815</v>
       </c>
       <c r="BC2">
-        <v>0.006421749945729971</v>
+        <v>0.005285950843244791</v>
       </c>
       <c r="BD2">
-        <v>-0.02867663092911243</v>
+        <v>-0.02623121999204159</v>
       </c>
       <c r="BE2">
-        <v>-0.0120390010997653</v>
+        <v>-0.01292348280549049</v>
       </c>
       <c r="BF2">
-        <v>-0.05391856655478477</v>
+        <v>-0.05934157222509384</v>
       </c>
       <c r="BG2">
-        <v>-0.003553233109414577</v>
+        <v>-0.0005506472080014646</v>
       </c>
       <c r="BH2">
-        <v>-0.001822410500608385</v>
+        <v>-0.002550341887399554</v>
       </c>
       <c r="BI2">
-        <v>0.07466704398393631</v>
+        <v>0.07745509594678879</v>
       </c>
       <c r="BJ2">
-        <v>-1.468193840992171E-05</v>
+        <v>0.001192513387650251</v>
       </c>
       <c r="BK2">
-        <v>0.003783488180488348</v>
+        <v>-0.002714131725952029</v>
       </c>
       <c r="BL2">
-        <v>-0.001664983108639717</v>
+        <v>-0.003701686393469572</v>
       </c>
       <c r="BM2">
-        <v>-0.04441024735569954</v>
+        <v>-0.0431479774415493</v>
       </c>
       <c r="BN2">
-        <v>-0.06123325601220131</v>
+        <v>-0.06447745114564896</v>
       </c>
       <c r="BO2">
-        <v>-0.08298306912183762</v>
+        <v>-0.07998000830411911</v>
       </c>
       <c r="BP2">
-        <v>-0.05775897949934006</v>
+        <v>-0.0536637045443058</v>
       </c>
       <c r="BQ2">
-        <v>-0.1149976626038551</v>
+        <v>-0.116094209253788</v>
       </c>
       <c r="BR2">
-        <v>-0.006829977966845036</v>
+        <v>-0.0007780207088217139</v>
       </c>
       <c r="BS2">
-        <v>0.01509643252938986</v>
+        <v>0.01132068783044815</v>
       </c>
       <c r="BT2">
-        <v>-0.001944112591445446</v>
+        <v>-0.0007834089919924736</v>
       </c>
       <c r="BU2">
-        <v>-0.09056022763252258</v>
+        <v>-0.08871857821941376</v>
       </c>
       <c r="BV2">
-        <v>-0.0681355744600296</v>
+        <v>-0.06520421802997589</v>
       </c>
       <c r="BW2">
-        <v>-9.365944424644113E-05</v>
+        <v>0.002709328662604094</v>
       </c>
       <c r="BX2">
-        <v>0.1364828497171402</v>
+        <v>0.1324599534273148</v>
       </c>
       <c r="BY2">
-        <v>-0.00398964574560523</v>
+        <v>0.002443736651912332</v>
       </c>
       <c r="BZ2">
-        <v>-0.1967187374830246</v>
+        <v>-0.1997179687023163</v>
       </c>
       <c r="CA2">
-        <v>-0.01775612123310566</v>
+        <v>-0.01560813654214144</v>
       </c>
       <c r="CB2">
-        <v>-0.04611286148428917</v>
+        <v>-0.04822711646556854</v>
       </c>
       <c r="CC2">
-        <v>0.01449685636907816</v>
+        <v>0.01542356424033642</v>
       </c>
       <c r="CD2">
-        <v>-0.003598437178879976</v>
+        <v>-0.0112583227455616</v>
       </c>
       <c r="CE2">
-        <v>-0.00606260821223259</v>
+        <v>-0.01226453855633736</v>
       </c>
       <c r="CF2">
-        <v>-0.05211500078439713</v>
+        <v>-0.05713232234120369</v>
       </c>
       <c r="CG2">
-        <v>0.09239479899406433</v>
+        <v>0.09086812287569046</v>
       </c>
       <c r="CH2">
-        <v>-0.01059018447995186</v>
+        <v>-0.01221356354653835</v>
       </c>
       <c r="CI2">
-        <v>0.01449561584740877</v>
+        <v>0.01662189140915871</v>
       </c>
       <c r="CJ2">
-        <v>0.003766973735764623</v>
+        <v>0.01151361130177975</v>
       </c>
       <c r="CK2">
-        <v>-0.06524855643510818</v>
+        <v>-0.06010836362838745</v>
       </c>
       <c r="CL2">
-        <v>0.002169264713302255</v>
+        <v>0.001828943728469312</v>
       </c>
       <c r="CM2">
-        <v>-0.06353055685758591</v>
+        <v>-0.06556844711303711</v>
       </c>
       <c r="CN2">
-        <v>-0.007020381279289722</v>
+        <v>-0.0007444242364726961</v>
       </c>
       <c r="CO2">
-        <v>-0.005444871261715889</v>
+        <v>-0.003472819458693266</v>
       </c>
       <c r="CP2">
-        <v>0.05394677445292473</v>
+        <v>0.05338191613554955</v>
       </c>
       <c r="CQ2">
-        <v>-0.06814981997013092</v>
+        <v>-0.06644973903894424</v>
       </c>
       <c r="CR2">
-        <v>0.009592846967279911</v>
+        <v>0.003917537163943052</v>
       </c>
       <c r="CS2">
-        <v>-0.003451731754466891</v>
+        <v>0.0003705316921696067</v>
       </c>
       <c r="CT2">
-        <v>0.001187782385386527</v>
+        <v>0.001919286325573921</v>
       </c>
       <c r="CU2">
-        <v>-0.00799167063087225</v>
+        <v>-0.008703179657459259</v>
       </c>
       <c r="CV2">
-        <v>-0.002194349421188235</v>
+        <v>0.0009603773360140622</v>
       </c>
       <c r="CW2">
-        <v>-0.03287005797028542</v>
+        <v>-0.03600144013762474</v>
       </c>
       <c r="CX2">
-        <v>-0.005656031891703606</v>
+        <v>-0.01589693129062653</v>
       </c>
       <c r="CY2">
-        <v>0.02559083513915539</v>
+        <v>0.02565775439143181</v>
       </c>
       <c r="CZ2">
-        <v>-0.001780765131115913</v>
+        <v>0.001278935000300407</v>
       </c>
       <c r="DA2">
-        <v>-0.06560900062322617</v>
+        <v>-0.06218117475509644</v>
       </c>
       <c r="DB2">
-        <v>0.0150940353050828</v>
+        <v>0.01604319922626019</v>
       </c>
       <c r="DC2">
-        <v>-0.01053494215011597</v>
+        <v>-0.01497482415288687</v>
       </c>
       <c r="DD2">
-        <v>0.05875343829393387</v>
+        <v>0.05489856004714966</v>
       </c>
       <c r="DE2">
-        <v>-0.001085083815269172</v>
+        <v>0.00188161910045892</v>
       </c>
       <c r="DF2">
-        <v>0.08268532156944275</v>
+        <v>0.0795978307723999</v>
       </c>
       <c r="DG2">
-        <v>-0.006673803552985191</v>
+        <v>-0.005183679517358541</v>
       </c>
       <c r="DH2">
-        <v>-0.09681141376495361</v>
+        <v>-0.09176201373338699</v>
       </c>
       <c r="DI2">
-        <v>0.002892266493290663</v>
+        <v>0.004234229680150747</v>
       </c>
       <c r="DJ2">
-        <v>0.1241907551884651</v>
+        <v>0.124936044216156</v>
       </c>
       <c r="DK2">
-        <v>-0.07102049887180328</v>
+        <v>-0.06950873136520386</v>
       </c>
       <c r="DL2">
-        <v>-0.04926137253642082</v>
+        <v>-0.05058436840772629</v>
       </c>
       <c r="DM2">
-        <v>-0.009099604561924934</v>
+        <v>-0.003642097115516663</v>
       </c>
       <c r="DN2">
-        <v>0.00773836113512516</v>
+        <v>0.009969217702746391</v>
       </c>
       <c r="DO2">
-        <v>0.008259067311882973</v>
+        <v>0.009891086257994175</v>
       </c>
       <c r="DP2">
-        <v>0.04543806239962578</v>
+        <v>0.04326388239860535</v>
       </c>
       <c r="DQ2">
-        <v>0.009432824328541756</v>
+        <v>0.01201943680644035</v>
       </c>
       <c r="DR2">
-        <v>-0.006665977649390697</v>
+        <v>-0.009466586634516716</v>
       </c>
       <c r="DS2">
-        <v>-0.09316225349903107</v>
+        <v>-0.09429167211055756</v>
       </c>
       <c r="DT2">
-        <v>0.00126223242841661</v>
+        <v>6.377754289133009E-06</v>
       </c>
       <c r="DU2">
-        <v>-0.0483013242483139</v>
+        <v>-0.05177013576030731</v>
       </c>
       <c r="DV2">
-        <v>0.00354852038435638</v>
+        <v>-0.007040859665721655</v>
       </c>
       <c r="DW2">
-        <v>-0.01382023189216852</v>
+        <v>-0.008121500723063946</v>
       </c>
       <c r="DX2">
-        <v>-0.01798105053603649</v>
+        <v>-0.01487801503390074</v>
       </c>
       <c r="DY2">
-        <v>0.1237911656498909</v>
+        <v>0.1299877315759659</v>
       </c>
       <c r="DZ2">
-        <v>-0.00621635839343071</v>
+        <v>-0.01205922942608595</v>
       </c>
       <c r="EA2">
-        <v>-0.04751147329807281</v>
+        <v>-0.04617581889033318</v>
       </c>
       <c r="EB2">
-        <v>-0.007733374368399382</v>
+        <v>-0.004747725091874599</v>
       </c>
       <c r="EC2">
-        <v>0.002527717500925064</v>
+        <v>0.006157135590910912</v>
       </c>
       <c r="ED2">
-        <v>0.006893186829984188</v>
+        <v>0.009665501303970814</v>
       </c>
       <c r="EE2">
-        <v>-0.004998128861188889</v>
+        <v>-0.002164695877581835</v>
       </c>
       <c r="EF2">
-        <v>0.04548394680023193</v>
+        <v>0.04970895871520042</v>
       </c>
       <c r="EG2">
-        <v>0.02021627128124237</v>
+        <v>0.02193102799355984</v>
       </c>
       <c r="EH2">
-        <v>-0.02952133491635323</v>
+        <v>-0.03282855451107025</v>
       </c>
       <c r="EI2">
-        <v>0.08065176755189896</v>
+        <v>0.07848991453647614</v>
       </c>
       <c r="EJ2">
-        <v>-0.1877322047948837</v>
+        <v>-0.1869229376316071</v>
       </c>
       <c r="EK2">
-        <v>-0.002825142815709114</v>
+        <v>-0.001719894935376942</v>
       </c>
       <c r="EL2">
-        <v>-0.001676894025877118</v>
+        <v>-0.000665745756123215</v>
       </c>
       <c r="EM2">
-        <v>-0.02004867792129517</v>
+        <v>-0.02050268836319447</v>
       </c>
       <c r="EN2">
-        <v>-0.1264431774616241</v>
+        <v>-0.1280276030302048</v>
       </c>
       <c r="EO2">
-        <v>-0.01406015455722809</v>
+        <v>-0.01018257346004248</v>
       </c>
       <c r="EP2">
-        <v>0.1117710545659065</v>
+        <v>0.1162601932883263</v>
       </c>
       <c r="EQ2">
-        <v>0.08570075035095215</v>
+        <v>0.08836127072572708</v>
       </c>
       <c r="ER2">
-        <v>0.006128940265625715</v>
+        <v>0.006957026198506355</v>
       </c>
       <c r="ES2">
-        <v>0.04340235516428947</v>
+        <v>0.03831255808472633</v>
       </c>
       <c r="ET2">
-        <v>-0.01783425733447075</v>
+        <v>-0.01706013083457947</v>
       </c>
       <c r="EU2">
-        <v>0.03212916851043701</v>
+        <v>0.03037208132445812</v>
       </c>
       <c r="EV2">
-        <v>0.03198942169547081</v>
+        <v>0.02516847476363182</v>
       </c>
       <c r="EW2">
-        <v>0.02449265494942665</v>
+        <v>0.03027143329381943</v>
       </c>
       <c r="EX2">
-        <v>0.02564252912998199</v>
+        <v>0.02715503238141537</v>
       </c>
       <c r="EY2">
-        <v>0.01788383722305298</v>
+        <v>0.01533213909715414</v>
       </c>
       <c r="EZ2">
-        <v>-0.03567885607481003</v>
+        <v>-0.02997412718832493</v>
       </c>
       <c r="FA2">
-        <v>-0.01409573666751385</v>
+        <v>-0.01165658049285412</v>
       </c>
       <c r="FB2">
-        <v>0.007891206070780754</v>
+        <v>0.0105852484703064</v>
       </c>
       <c r="FC2">
-        <v>-0.09209928661584854</v>
+        <v>-0.09008786827325821</v>
       </c>
       <c r="FD2">
-        <v>-0.01377911493182182</v>
+        <v>-0.01158993598073721</v>
       </c>
       <c r="FE2">
-        <v>0.04445946961641312</v>
+        <v>0.04774715751409531</v>
       </c>
       <c r="FF2">
-        <v>0.03896027058362961</v>
+        <v>0.03236750140786171</v>
       </c>
       <c r="FG2">
-        <v>-0.003346094861626625</v>
+        <v>-0.004327110480517149</v>
       </c>
       <c r="FH2">
-        <v>-0.001450541196390986</v>
+        <v>0.0007664907025173306</v>
       </c>
       <c r="FI2">
-        <v>0.05802092328667641</v>
+        <v>0.0583551749587059</v>
       </c>
       <c r="FJ2">
-        <v>0.01257922314107418</v>
+        <v>0.01725192926824093</v>
       </c>
       <c r="FK2">
-        <v>0.02069021016359329</v>
+        <v>0.02483249641954899</v>
       </c>
       <c r="FL2">
-        <v>0.07206434011459351</v>
+        <v>0.0760645717382431</v>
       </c>
       <c r="FM2">
-        <v>-0.007588185369968414</v>
+        <v>-0.003490085015073419</v>
       </c>
       <c r="FN2">
-        <v>-0.001737785409204662</v>
+        <v>-0.0036829246673733</v>
       </c>
       <c r="FO2">
-        <v>0.006209271494299173</v>
+        <v>-0.003806915367022157</v>
       </c>
       <c r="FP2">
-        <v>0.002737785689532757</v>
+        <v>0.01060374360531569</v>
       </c>
       <c r="FQ2">
-        <v>-0.004382003098726273</v>
+        <v>-0.002634186530485749</v>
       </c>
       <c r="FR2">
-        <v>-0.002781633054837584</v>
+        <v>0.0002823869581334293</v>
       </c>
       <c r="FS2">
-        <v>-0.004631292540580034</v>
+        <v>-0.00369865563698113</v>
       </c>
       <c r="FT2">
-        <v>0.002432964043691754</v>
+        <v>0.004656179342418909</v>
       </c>
       <c r="FU2">
-        <v>-0.1012138351798058</v>
+        <v>-0.0978902131319046</v>
       </c>
       <c r="FV2">
-        <v>0.1218085438013077</v>
+        <v>0.12612684071064</v>
       </c>
       <c r="FW2">
-        <v>0.03094475343823433</v>
+        <v>0.0322030633687973</v>
       </c>
       <c r="FX2">
-        <v>0.001905889599584043</v>
+        <v>0.0014577069086954</v>
       </c>
       <c r="FY2">
-        <v>0.001365108066238463</v>
+        <v>-0.0004932171432301402</v>
       </c>
       <c r="FZ2">
-        <v>-0.01404839288443327</v>
+        <v>-0.01061935909092426</v>
       </c>
       <c r="GA2">
-        <v>0.02406527101993561</v>
+        <v>0.02350129932165146</v>
       </c>
       <c r="GB2">
-        <v>-0.001983425347134471</v>
+        <v>-0.0009304493432864547</v>
       </c>
       <c r="GC2">
-        <v>-0.06936318427324295</v>
+        <v>-0.06676650047302246</v>
       </c>
       <c r="GD2">
-        <v>0.1616566926240921</v>
+        <v>0.1587950885295868</v>
       </c>
       <c r="GE2">
-        <v>0.0001387405063724145</v>
+        <v>0.001461534178815782</v>
       </c>
       <c r="GF2">
-        <v>-0.005631843581795692</v>
+        <v>-0.01215959340333939</v>
       </c>
       <c r="GG2">
-        <v>-0.02955187484622002</v>
+        <v>-0.03088781423866749</v>
       </c>
       <c r="GH2">
-        <v>0.01606583595275879</v>
+        <v>0.01201526541262865</v>
       </c>
       <c r="GI2">
-        <v>-0.09578640758991241</v>
+        <v>-0.09351568669080734</v>
       </c>
       <c r="GJ2">
-        <v>0.01414935290813446</v>
+        <v>0.00994462613016367</v>
       </c>
       <c r="GK2">
-        <v>-0.01746309921145439</v>
+        <v>-0.01826650649309158</v>
       </c>
       <c r="GL2">
-        <v>-0.02196353673934937</v>
+        <v>-0.02182062156498432</v>
       </c>
       <c r="GM2">
-        <v>-0.0167692843824625</v>
+        <v>-0.01659381575882435</v>
       </c>
       <c r="GN2">
-        <v>0.09186886996030807</v>
+        <v>0.09187517315149307</v>
       </c>
       <c r="GO2">
-        <v>-0.02272552065551281</v>
+        <v>-0.02693507261574268</v>
       </c>
       <c r="GP2">
-        <v>0.00754235778003931</v>
+        <v>0.009835540316998959</v>
       </c>
       <c r="GQ2">
-        <v>-0.01533994637429714</v>
+        <v>-0.0174452867358923</v>
       </c>
       <c r="GR2">
-        <v>-0.00631481921300292</v>
+        <v>-0.003243200480937958</v>
       </c>
       <c r="GS2">
-        <v>-0.05541365593671799</v>
+        <v>-0.05133454874157906</v>
       </c>
       <c r="GT2">
-        <v>0.011661721393466</v>
+        <v>0.0001701017754385248</v>
       </c>
       <c r="GU2">
-        <v>-0.02331593818962574</v>
+        <v>-0.02333958819508553</v>
       </c>
       <c r="GV2">
-        <v>-0.001629216014407575</v>
+        <v>0.001983492402359843</v>
       </c>
       <c r="GW2">
-        <v>0.04094259440898895</v>
+        <v>0.04537801444530487</v>
       </c>
       <c r="GX2">
-        <v>0.005368842277675867</v>
+        <v>0.0005466690636239946</v>
       </c>
       <c r="GY2">
-        <v>3.979960092692636E-05</v>
+        <v>0.002357606077566743</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Regression/Equation/Media & Entertainment.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.003319780807942152</v>
+        <v>-0.003135205013677478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0046161781065166</v>
+        <v>0.006091251503676176</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0437651239335537</v>
+        <v>-0.04394637420773506</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1169597059488297</v>
+        <v>0.1156375408172607</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008055854588747025</v>
+        <v>0.00857184175401926</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09766735881567001</v>
+        <v>0.1001209020614624</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005658905021846294</v>
+        <v>0.004539319779723883</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02626494318246841</v>
+        <v>-0.02732170186936855</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.05893852934241295</v>
+        <v>-0.05934763327240944</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001212210743688047</v>
+        <v>-0.00154349859803915</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009987256489694118</v>
+        <v>0.008307316340506077</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0009247977868653834</v>
+        <v>0.0005885717691853642</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003452799981459975</v>
+        <v>0.004573819227516651</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008014577440917492</v>
+        <v>0.009455888532102108</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.00196766247972846</v>
+        <v>-0.003308973740786314</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1219588741660118</v>
+        <v>0.1243194341659546</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.008033456280827522</v>
+        <v>-0.006261016707867384</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.04750475287437439</v>
+        <v>-0.04985007271170616</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06828803569078445</v>
+        <v>0.0679483562707901</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004475121386349201</v>
+        <v>0.00183810421731323</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0143501553684473</v>
+        <v>-0.01289953570812941</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01624880917370319</v>
+        <v>0.01690043695271015</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01070692483335733</v>
+        <v>0.00869994331151247</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0433681309223175</v>
+        <v>0.04421325773000717</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.01056646555662155</v>
+        <v>-0.009188691154122353</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.01189326867461205</v>
+        <v>-0.01351125165820122</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.04425995796918869</v>
+        <v>-0.04362379759550095</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03249472752213478</v>
+        <v>0.03276580944657326</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.004646673332899809</v>
+        <v>0.003837311640381813</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.04227150976657867</v>
+        <v>0.04188600182533264</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.01402623206377029</v>
+        <v>-0.01409967616200447</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04407598078250885</v>
+        <v>0.04368071630597115</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.03359337151050568</v>
+        <v>0.03371583297848701</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01531679835170507</v>
+        <v>0.01747028343379498</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.01059833914041519</v>
+        <v>-0.0126279778778553</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.005956140346825123</v>
+        <v>0.00410389294847846</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.001937946421094239</v>
+        <v>0.003392769955098629</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.1018002927303314</v>
+        <v>-0.09934449195861816</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.03463156521320343</v>
+        <v>0.03525830805301666</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.018254105001688</v>
+        <v>0.02054004929959774</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0800846666097641</v>
+        <v>0.08135168254375458</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.009144040755927563</v>
+        <v>-0.006889746524393559</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.117865152657032</v>
+        <v>0.1153944730758667</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.08637481182813644</v>
+        <v>0.08490179479122162</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.02459263242781162</v>
+        <v>0.02415627613663673</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.03530269116163254</v>
+        <v>-0.03449872136116028</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.01494354289025068</v>
+        <v>-0.0144822895526886</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.006213743705302477</v>
+        <v>-0.005171561148017645</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1513962000608444</v>
+        <v>-0.1534655392169952</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.06791362166404724</v>
+        <v>-0.06688649207353592</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.02987738139927387</v>
+        <v>-0.03081883676350117</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0631365031003952</v>
+        <v>-0.06241642683744431</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.1010535806417465</v>
+        <v>-0.09839643537998199</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.009172125719487667</v>
+        <v>0.01138521172106266</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.02836311049759388</v>
+        <v>-0.02906260266900063</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.009679813869297504</v>
+        <v>-0.008944778703153133</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.05474520847201347</v>
+        <v>-0.05228849500417709</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.002174096880480647</v>
+        <v>-0.002934992546215653</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.006132236681878567</v>
+        <v>-0.004559651482850313</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.07594914734363556</v>
+        <v>0.07568597793579102</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.006047637201845646</v>
+        <v>0.005315438844263554</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.001625954057089984</v>
+        <v>0.000631547998636961</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.001456789788790047</v>
+        <v>-0.001457023317925632</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.04299156740307808</v>
+        <v>-0.04250554367899895</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0611511766910553</v>
+        <v>-0.06145512312650681</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.07742130756378174</v>
+        <v>-0.07734275609254837</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.05585916712880135</v>
+        <v>-0.05705982074141502</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.1127479523420334</v>
+        <v>-0.1126375868916512</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.0005625474150292575</v>
+        <v>0.001388711971230805</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00914748664945364</v>
+        <v>0.01388405077159405</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.0003259883669670671</v>
+        <v>-0.001802024897187948</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.09075730293989182</v>
+        <v>-0.09165988862514496</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.0675198957324028</v>
+        <v>-0.06464798003435135</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.004197211936116219</v>
+        <v>0.0004679056582972407</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1351552903652191</v>
+        <v>0.1327845752239227</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.002507337601855397</v>
+        <v>-0.0002399087679805234</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.197095662355423</v>
+        <v>-0.1993092894554138</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.01583626121282578</v>
+        <v>-0.01503228209912777</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.04914433881640434</v>
+        <v>-0.048760075122118</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01578628085553646</v>
+        <v>0.01458665542304516</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01053624879568815</v>
+        <v>-0.01284565590322018</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.0090352613478899</v>
+        <v>-0.009249992668628693</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.06147579476237297</v>
+        <v>-0.06145598739385605</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.09704862534999847</v>
+        <v>0.09377607703208923</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.009174704551696777</v>
+        <v>-0.01075298152863979</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01440066285431385</v>
+        <v>0.0135407168418169</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.007966453209519386</v>
+        <v>0.01003551110625267</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.06165771931409836</v>
+        <v>-0.06223374232649803</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.001298161689192057</v>
+        <v>0.0004593566991388798</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.06758277118206024</v>
+        <v>-0.06478399038314819</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.001369607634842396</v>
+        <v>0.00340005150064826</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.005342579912394285</v>
+        <v>-0.006172327324748039</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.05265775695443153</v>
+        <v>0.05560646951198578</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.06824170798063278</v>
+        <v>-0.07057038694620132</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0008125322056002915</v>
+        <v>0.001263761194422841</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.002130982466042042</v>
+        <v>-0.003187246387824416</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.001731508993543684</v>
+        <v>0.0006353190401569009</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.006100841332226992</v>
+        <v>-0.007078804075717926</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0002143472956959158</v>
+        <v>0.002046386711299419</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.03918730467557907</v>
+        <v>-0.03814366087317467</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.01952484995126724</v>
+        <v>-0.01813236437737942</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02583028562366962</v>
+        <v>0.02685704082250595</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.001640318776480854</v>
+        <v>0.0004622389387805015</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.05907731130719185</v>
+        <v>-0.05982673540711403</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.02093171700835228</v>
+        <v>0.02008804678916931</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.01475137751549482</v>
+        <v>-0.01261161733418703</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.05769966170191765</v>
+        <v>0.05516036599874496</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.0005705298390239477</v>
+        <v>-0.001405340502969921</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.08205825835466385</v>
+        <v>0.08155811578035355</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.002540156245231628</v>
+        <v>-0.003511082613840699</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.08913268148899078</v>
+        <v>-0.08584730327129364</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.006225543096661568</v>
+        <v>0.006275409832596779</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.1192057654261589</v>
+        <v>0.1196279376745224</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.07303484529256821</v>
+        <v>-0.07083535194396973</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.05184216052293777</v>
+        <v>-0.05101772770285606</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.001371769234538078</v>
+        <v>0.00368592725135386</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00822219904512167</v>
+        <v>0.007545916829258204</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01205958612263203</v>
+        <v>0.0119368052110076</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.04552149772644043</v>
+        <v>0.04576580226421356</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00964407529681921</v>
+        <v>0.008998094126582146</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.006989598739892244</v>
+        <v>-0.005219003651291132</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0920720249414444</v>
+        <v>-0.09113430231809616</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.003644328098744154</v>
+        <v>0.003359051188454032</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.05206847190856934</v>
+        <v>-0.05355649068951607</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.009670254774391651</v>
+        <v>-0.008500516414642334</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.008512185886502266</v>
+        <v>-0.007155149709433317</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.01644783467054367</v>
+        <v>-0.01704800687730312</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.1269525140523911</v>
+        <v>0.1269064396619797</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.01537219993770123</v>
+        <v>-0.01467631943523884</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.04914852976799011</v>
+        <v>-0.04674018174409866</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.006871361285448074</v>
+        <v>-0.007700894493609667</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.008001935668289661</v>
+        <v>0.00727113988250494</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.008122353814542294</v>
+        <v>0.007913226261734962</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.004698371980339289</v>
+        <v>-0.005630841013044119</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.05382095277309418</v>
+        <v>0.05136424675583839</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.02508441545069218</v>
+        <v>0.02773735858500004</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.03056579083204269</v>
+        <v>-0.0324721597135067</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.08123715221881866</v>
+        <v>0.07901415228843689</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.1904760152101517</v>
+        <v>-0.1935714334249496</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.003186934161931276</v>
+        <v>-0.00373931578360498</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.002704225713387132</v>
+        <v>-0.003703337861225009</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.02380133420228958</v>
+        <v>-0.02536023408174515</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.1252862960100174</v>
+        <v>-0.1248269155621529</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.006500984076410532</v>
+        <v>-0.008261250331997871</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.1214004009962082</v>
+        <v>0.1189281344413757</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.09102421998977661</v>
+        <v>0.09363272041082382</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.008134610950946808</v>
+        <v>0.01294967997819185</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.04123913869261742</v>
+        <v>0.04140361398458481</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.01673856377601624</v>
+        <v>-0.01722813583910465</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.03516896069049835</v>
+        <v>0.03591888025403023</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0274099987000227</v>
+        <v>0.02535935677587986</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.02824905514717102</v>
+        <v>0.02822564356029034</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.03012350015342236</v>
+        <v>0.03049350902438164</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01272296905517578</v>
+        <v>0.0113013731315732</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.03128896653652191</v>
+        <v>-0.03172528371214867</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.01304722111672163</v>
+        <v>-0.01154300663620234</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.008115017786622047</v>
+        <v>0.007295429240912199</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.08692984282970428</v>
+        <v>-0.08188920468091965</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.01167544908821583</v>
+        <v>-0.01285774633288383</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.05027464404702187</v>
+        <v>0.05123819410800934</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0329585000872612</v>
+        <v>0.03687306866049767</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.001365402946248651</v>
+        <v>-0.003986127208918333</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0001939457724802196</v>
+        <v>-0.002234680810943246</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.06079172715544701</v>
+        <v>0.06149978935718536</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.01829981058835983</v>
+        <v>0.02085247822105885</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02361295185983181</v>
+        <v>0.02067654766142368</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.07470272481441498</v>
+        <v>0.07269301265478134</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.004683601669967175</v>
+        <v>-0.005642759148031473</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.00136991310864687</v>
+        <v>-0.001563709927722812</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.002656019059941173</v>
+        <v>-0.001004412421025336</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01484311930835247</v>
+        <v>0.01322242617607117</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.004431861452758312</v>
+        <v>-0.00518709747120738</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.002041972475126386</v>
+        <v>-0.00269091734662652</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.004096872638911009</v>
+        <v>-0.005158232990652323</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.002583929104730487</v>
+        <v>0.002202165313065052</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.09945542365312576</v>
+        <v>-0.09960820525884628</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.1242797747254372</v>
+        <v>0.1237156316637993</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.03067303262650967</v>
+        <v>0.02991406805813313</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.004089816473424435</v>
+        <v>0.005527721252292395</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.003485890338197351</v>
+        <v>-0.005564883351325989</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.01271739043295383</v>
+        <v>-0.01502386480569839</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02397290989756584</v>
+        <v>0.02134418115019798</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.005650934297591448</v>
+        <v>-0.006383849773555994</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.06396416574716568</v>
+        <v>-0.06306054443120956</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.1578505486249924</v>
+        <v>0.1571404635906219</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.0005314472364261746</v>
+        <v>-0.00153026741463691</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.01524943113327026</v>
+        <v>-0.0153307719156146</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.02806760556995869</v>
+        <v>-0.03021448850631714</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.006967195775359869</v>
+        <v>0.004648489877581596</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.09389280527830124</v>
+        <v>-0.09497436881065369</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.005868314765393734</v>
+        <v>0.005434202030301094</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.01695782877504826</v>
+        <v>-0.01971196383237839</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.02370795793831348</v>
+        <v>-0.02232885174453259</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.01988980546593666</v>
+        <v>-0.01998627372086048</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.08920895308256149</v>
+        <v>0.08623185008764267</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.02446659281849861</v>
+        <v>-0.02679452672600746</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.008587212301790714</v>
+        <v>0.007699387148022652</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.01424708217382431</v>
+        <v>-0.01517350506037474</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.001840306911617517</v>
+        <v>0.0008270044927485287</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.0467274896800518</v>
+        <v>-0.04880166053771973</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.002212925115600228</v>
+        <v>2.498662979633082e-05</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.02317398600280285</v>
+        <v>-0.02213163115084171</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.003761552507057786</v>
+        <v>0.002042762702330947</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.04462568461894989</v>
+        <v>0.04338626191020012</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.001913043553940952</v>
+        <v>-0.002334424061700702</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.0002666596265044063</v>
+        <v>-0.0005142286536283791</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Regression/Equation/Media & Entertainment.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.003135205013677478</v>
+        <v>-0.005877179559320211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006091251503676176</v>
+        <v>0.002650998067110777</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04394637420773506</v>
+        <v>-0.03763342276215553</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1156375408172607</v>
+        <v>0.1184694096446037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00857184175401926</v>
+        <v>0.00602235458791256</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1001209020614624</v>
+        <v>0.09240136295557022</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004539319779723883</v>
+        <v>0.0034213294275105</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02732170186936855</v>
+        <v>-0.02438093535602093</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.05934763327240944</v>
+        <v>-0.06217291951179504</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00154349859803915</v>
+        <v>0.0010089190909639</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008307316340506077</v>
+        <v>0.004199671559035778</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005885717691853642</v>
+        <v>0.00438137911260128</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004573819227516651</v>
+        <v>0.001885743695311248</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009455888532102108</v>
+        <v>0.01738271676003933</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.003308973740786314</v>
+        <v>0.0009741129470057786</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1243194341659546</v>
+        <v>0.1308856457471848</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.006261016707867384</v>
+        <v>-0.01362359803169966</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.04985007271170616</v>
+        <v>-0.05414328351616859</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0679483562707901</v>
+        <v>0.07108861953020096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00183810421731323</v>
+        <v>-0.0002738338662311435</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.01289953570812941</v>
+        <v>-0.01071369089186192</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01690043695271015</v>
+        <v>0.01374006271362305</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00869994331151247</v>
+        <v>0.007067503873258829</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.04421325773000717</v>
+        <v>0.04167596250772476</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.009188691154122353</v>
+        <v>-0.01336140558123589</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.01351125165820122</v>
+        <v>-0.01762019656598568</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.04362379759550095</v>
+        <v>-0.04415550455451012</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03276580944657326</v>
+        <v>0.02908610366284847</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.003837311640381813</v>
+        <v>0.006379071623086929</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.04188600182533264</v>
+        <v>0.03756330162286758</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.01409967616200447</v>
+        <v>-0.005179069936275482</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04368071630597115</v>
+        <v>0.03968910127878189</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.03371583297848701</v>
+        <v>0.03138859942555428</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01747028343379498</v>
+        <v>0.02006477303802967</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.0126279778778553</v>
+        <v>-0.01585108414292336</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.00410389294847846</v>
+        <v>-0.0005295841838233173</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.003392769955098629</v>
+        <v>0.005046522244811058</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.09934449195861816</v>
+        <v>-0.1039405912160873</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.03525830805301666</v>
+        <v>0.02951243706047535</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02054004929959774</v>
+        <v>0.01959561929106712</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.08135168254375458</v>
+        <v>0.08443626761436462</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.006889746524393559</v>
+        <v>-0.004511313512921333</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1153944730758667</v>
+        <v>0.1207628771662712</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.08490179479122162</v>
+        <v>0.0778452605009079</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.02415627613663673</v>
+        <v>0.02987321279942989</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.03449872136116028</v>
+        <v>-0.03846109285950661</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0144822895526886</v>
+        <v>-0.009691964834928513</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.005171561148017645</v>
+        <v>-0.007759036496281624</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1534655392169952</v>
+        <v>-0.1556807607412338</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.06688649207353592</v>
+        <v>-0.07060187309980392</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.03081883676350117</v>
+        <v>-0.0270899161696434</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.06241642683744431</v>
+        <v>-0.06424440443515778</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.09839643537998199</v>
+        <v>-0.09636940807104111</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01138521172106266</v>
+        <v>0.0110184708610177</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.02906260266900063</v>
+        <v>-0.02612479403614998</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.008944778703153133</v>
+        <v>-0.01117140334099531</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.05228849500417709</v>
+        <v>-0.04534606635570526</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.002934992546215653</v>
+        <v>-4.801659997610841e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.004559651482850313</v>
+        <v>-0.006912234704941511</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.07568597793579102</v>
+        <v>0.07859265804290771</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.005315438844263554</v>
+        <v>0.004441318102180958</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.000631547998636961</v>
+        <v>-0.003174614859744906</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.001457023317925632</v>
+        <v>-0.00420020055025816</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.04250554367899895</v>
+        <v>-0.03836282715201378</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.06145512312650681</v>
+        <v>-0.05120454356074333</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.07734275609254837</v>
+        <v>-0.08053281903266907</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.05705982074141502</v>
+        <v>-0.05603250861167908</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.1126375868916512</v>
+        <v>-0.1013365760445595</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.001388711971230805</v>
+        <v>-0.003088419558480382</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.01388405077159405</v>
+        <v>0.01054414920508862</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.001802024897187948</v>
+        <v>-0.005857667420059443</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.09165988862514496</v>
+        <v>-0.08960293233394623</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.06464798003435135</v>
+        <v>-0.06113829091191292</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0004679056582972407</v>
+        <v>0.003316604066640139</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1327845752239227</v>
+        <v>0.129915714263916</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.0002399087679805234</v>
+        <v>-0.002444681711494923</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.1993092894554138</v>
+        <v>-0.2020619809627533</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.01503228209912777</v>
+        <v>-0.01910978741943836</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.048760075122118</v>
+        <v>-0.05035475641489029</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01458665542304516</v>
+        <v>0.01770965568721294</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01284565590322018</v>
+        <v>0.0008449115557596087</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.009249992668628693</v>
+        <v>-0.005232879891991615</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.06145598739385605</v>
+        <v>-0.06408838182687759</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.09377607703208923</v>
+        <v>0.09074125438928604</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.01075298152863979</v>
+        <v>-0.01261990983039141</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0135407168418169</v>
+        <v>0.01613189093768597</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.01003551110625267</v>
+        <v>0.006447423249483109</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.06223374232649803</v>
+        <v>-0.05911607295274734</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0004593566991388798</v>
+        <v>0.004386526998132467</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.06478399038314819</v>
+        <v>-0.06846028566360474</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.00340005150064826</v>
+        <v>0.006330929230898619</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.006172327324748039</v>
+        <v>-0.003423409070819616</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.05560646951198578</v>
+        <v>0.05327951535582542</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.07057038694620132</v>
+        <v>-0.06681232154369354</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.001263761194422841</v>
+        <v>0.001171612762846053</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.003187246387824416</v>
+        <v>-0.001054597785696387</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0006353190401569009</v>
+        <v>0.003730205819010735</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.007078804075717926</v>
+        <v>-0.005611371248960495</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.002046386711299419</v>
+        <v>-0.0007196453516371548</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.03814366087317467</v>
+        <v>-0.03504003956913948</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.01813236437737942</v>
+        <v>-0.02073235251009464</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02685704082250595</v>
+        <v>0.02277953363955021</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0004622389387805015</v>
+        <v>-0.003508299123495817</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.05982673540711403</v>
+        <v>-0.06233041733503342</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.02008804678916931</v>
+        <v>0.01707078143954277</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.01261161733418703</v>
+        <v>-0.01174094062298536</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.05516036599874496</v>
+        <v>0.05255234241485596</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.001405340502969921</v>
+        <v>0.0009601981146261096</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.08155811578035355</v>
+        <v>0.07861478626728058</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.003511082613840699</v>
+        <v>0.008409053087234497</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.08584730327129364</v>
+        <v>-0.09602194279432297</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.006275409832596779</v>
+        <v>0.007934807799756527</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.1196279376745224</v>
+        <v>0.1248579993844032</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.07083535194396973</v>
+        <v>-0.07566878944635391</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.05101772770285606</v>
+        <v>-0.05554556474089622</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00368592725135386</v>
+        <v>-0.005164709407836199</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.007545916829258204</v>
+        <v>0.01077921781688929</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0119368052110076</v>
+        <v>0.01594941131770611</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.04576580226421356</v>
+        <v>0.04310047626495361</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.008998094126582146</v>
+        <v>0.01171506568789482</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.005219003651291132</v>
+        <v>-0.007164554670453072</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.09113430231809616</v>
+        <v>-0.09495627135038376</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.003359051188454032</v>
+        <v>0.002160252304747701</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.05355649068951607</v>
+        <v>-0.05683258175849915</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.008500516414642334</v>
+        <v>-0.004832625389099121</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.007155149709433317</v>
+        <v>-0.003024217206984758</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.01704800687730312</v>
+        <v>-0.0140354922041297</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.1269064396619797</v>
+        <v>0.1244957894086838</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.01467631943523884</v>
+        <v>-0.008737090043723583</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.04674018174409866</v>
+        <v>-0.0505310483276844</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.007700894493609667</v>
+        <v>-0.00524783693253994</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00727113988250494</v>
+        <v>0.007544215302914381</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.007913226261734962</v>
+        <v>0.01119603030383587</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.005630841013044119</v>
+        <v>-0.003304461250081658</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.05136424675583839</v>
+        <v>0.04078223183751106</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.02773735858500004</v>
+        <v>0.02211067453026772</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0324721597135067</v>
+        <v>-0.03491720929741859</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.07901415228843689</v>
+        <v>0.07633690536022186</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.1935714334249496</v>
+        <v>-0.1883469074964523</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.00373931578360498</v>
+        <v>-0.000324923254083842</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.003703337861225009</v>
+        <v>-0.001414022757671773</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.02536023408174515</v>
+        <v>-0.02231128886342049</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.1248269155621529</v>
+        <v>-0.119660809636116</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.008261250331997871</v>
+        <v>-0.01152747869491577</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.1189281344413757</v>
+        <v>0.1125423163175583</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.09363272041082382</v>
+        <v>0.08327934890985489</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.01294967997819185</v>
+        <v>0.004064165521413088</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.04140361398458481</v>
+        <v>0.03881142660975456</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.01722813583910465</v>
+        <v>-0.01219906471669674</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.03591888025403023</v>
+        <v>0.03267670422792435</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.02535935677587986</v>
+        <v>0.02965979464352131</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.02822564356029034</v>
+        <v>0.02609189227223396</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.03049350902438164</v>
+        <v>0.02773723192512989</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0113013731315732</v>
+        <v>0.01236337330192327</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.03172528371214867</v>
+        <v>-0.03319897502660751</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.01154300663620234</v>
+        <v>-0.01456186361610889</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.007295429240912199</v>
+        <v>0.009690411388874054</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.08188920468091965</v>
+        <v>-0.08889268338680267</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.01285774633288383</v>
+        <v>-0.01745526678860188</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.05123819410800934</v>
+        <v>0.04748202115297318</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.03687306866049767</v>
+        <v>0.03936988115310669</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.003986127208918333</v>
+        <v>-0.006692831870168447</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.002234680810943246</v>
+        <v>-0.005713597871363163</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.06149978935718536</v>
+        <v>0.05819756537675858</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.02085247822105885</v>
+        <v>0.02554738707840443</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02067654766142368</v>
+        <v>0.02528516389429569</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.07269301265478134</v>
+        <v>0.07585550844669342</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.005642759148031473</v>
+        <v>-0.001634310930967331</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.001563709927722812</v>
+        <v>-0.004465223755687475</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.001004412421025336</v>
+        <v>-0.001542326644994318</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01322242617607117</v>
+        <v>0.005425326060503721</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.00518709747120738</v>
+        <v>-0.00251277256757021</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.00269091734662652</v>
+        <v>-0.0003598215989768505</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.005158232990652323</v>
+        <v>-0.001824362087063491</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.002202165313065052</v>
+        <v>0.00518736382946372</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.09960820525884628</v>
+        <v>-0.0964350625872612</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.1237156316637993</v>
+        <v>0.1266601234674454</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02991406805813313</v>
+        <v>0.03231775015592575</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.005527721252292395</v>
+        <v>0.0101754404604435</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.005564883351325989</v>
+        <v>-0.002900596242398024</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.01502386480569839</v>
+        <v>-0.01553909573704004</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02134418115019798</v>
+        <v>0.02116269432008266</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.006383849773555994</v>
+        <v>-0.007602204568684101</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.06306054443120956</v>
+        <v>-0.05725673586130142</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.1571404635906219</v>
+        <v>0.1676973849534988</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.00153026741463691</v>
+        <v>0.0007575614145025611</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.0153307719156146</v>
+        <v>-0.01888381317257881</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.03021448850631714</v>
+        <v>-0.0323503166437149</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.004648489877581596</v>
+        <v>0.007709415629506111</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.09497436881065369</v>
+        <v>-0.1034738421440125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.005434202030301094</v>
+        <v>0.009477478452026844</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.01971196383237839</v>
+        <v>-0.02914557233452797</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.02232885174453259</v>
+        <v>-0.01891135796904564</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.01998627372086048</v>
+        <v>-0.01455254293978214</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.08623185008764267</v>
+        <v>0.09478601813316345</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.02679452672600746</v>
+        <v>-0.02226836793124676</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.007699387148022652</v>
+        <v>0.0108400946483016</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.01517350506037474</v>
+        <v>-0.0160501878708601</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.0008270044927485287</v>
+        <v>-0.002749312436208129</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.04880166053771973</v>
+        <v>-0.04392590373754501</v>
       </c>
       <c r="GT2" t="n">
-        <v>2.498662979633082e-05</v>
+        <v>0.0031646101269871</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.02213163115084171</v>
+        <v>-0.02471909858286381</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.002042762702330947</v>
+        <v>-0.0005271169939078391</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.04338626191020012</v>
+        <v>0.04281454160809517</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.002334424061700702</v>
+        <v>0.0006282182293944061</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.0005142286536283791</v>
+        <v>0.002069630660116673</v>
       </c>
     </row>
   </sheetData>
